--- a/scrapers/scraped-data/Nationale wedstrijd 2023_ilca 6.xlsx
+++ b/scrapers/scraped-data/Nationale wedstrijd 2023_ilca 6.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
